--- a/References/虛擬資料.xlsx
+++ b/References/虛擬資料.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Artists_treasure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\030\Desktop\Artists\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C599A1-99CE-4E65-A7A9-C504614781BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4B6EC8-DFBA-4E80-9709-6924FBEED4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="創作品資料表(ARTWORK)" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="250">
   <si>
     <t>欄位名稱</t>
   </si>
@@ -50,12 +50,6 @@
     <t>範例</t>
   </si>
   <si>
-    <t>備註說明</t>
-  </si>
-  <si>
-    <t>查詢方式</t>
-  </si>
-  <si>
     <t>CTD_ID</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>CTD00001</t>
   </si>
   <si>
-    <t>自動編號，皆為五位數。</t>
-  </si>
-  <si>
     <t>CT_ID</t>
   </si>
   <si>
@@ -116,9 +107,6 @@
     <t>Skrik</t>
   </si>
   <si>
-    <t> ✓</t>
-  </si>
-  <si>
     <t>CTD_RANK</t>
   </si>
   <si>
@@ -134,9 +122,6 @@
     <t>獲獎金額</t>
   </si>
   <si>
-    <t>單位為新台幣。</t>
-  </si>
-  <si>
     <t>CT_LOCATION</t>
   </si>
   <si>
@@ -167,9 +152,6 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>格式:YYYY-MM-DD。</t>
-  </si>
-  <si>
     <t>CT_END</t>
   </si>
   <si>
@@ -182,9 +164,6 @@
     <t>作品件數</t>
   </si>
   <si>
-    <t>計算欄位。</t>
-  </si>
-  <si>
     <t>CT_INTRODUCE</t>
   </si>
   <si>
@@ -221,9 +200,6 @@
     <t>EN00001</t>
   </si>
   <si>
-    <t>會用CHECK確保不會同時有/沒有</t>
-  </si>
-  <si>
     <t>COL_ID</t>
   </si>
   <si>
@@ -765,6 +741,57 @@
   </si>
   <si>
     <t>INSERT INTO ARTWORK (AK_DATE,AK_NAME,AK_MATERIAL,AK_SIZE,AK_SIGNATURE_Y,AK_THEME,AK_INTRODUCT)</t>
+  </si>
+  <si>
+    <t>財團法人王源林文化藝術基金會</t>
+  </si>
+  <si>
+    <t>線上</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 10 屆「竹梅源文藝獎」全國油畫創作比賽-初審</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>為提升藝術文化水準，促進藝術創作交流，致力藝術教育平台，「財團法人王源林文化藝術基金會」成立「竹梅源文藝獎」，希望推廣藝術、提昇文化品質，發掘鼓勵更多青年藝術菁英。</t>
+  </si>
+  <si>
+    <t>可採紙本報名。
+https://wylf.org.tw/2024-%E3%80%8C%E7%AB%B9%E6%A2%85%E6%BA%90%E6%96%87%E8%97%9D%E7%8D%8E%E3%80%8D%E7%AC%AC10%E5%B1%86%E5%85%A8%E5%9C%8B%E6%B2%B9%E7%95%AB%E5%89%B5%E4%BD%9C%E6%AF%94%E8%B3%BD/</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTD00001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>私下交易</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>王曉明</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>張家豪</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDED00001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDE00001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>國立美術館</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>梵谷畫展</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -930,7 +957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -950,20 +977,11 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1056,11 +1074,38 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1370,26 +1415,26 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" customHeight="1">
@@ -1411,578 +1456,578 @@
     </row>
     <row r="2" spans="1:15" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>191</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="29">
+        <v>45560</v>
+      </c>
+      <c r="G3" s="29">
+        <v>45560</v>
+      </c>
+      <c r="H3" s="29">
+        <v>45560</v>
+      </c>
+      <c r="I3" s="29">
+        <v>45560</v>
+      </c>
+      <c r="J3" s="29">
+        <v>45560</v>
+      </c>
+      <c r="K3" s="29">
+        <v>45560</v>
+      </c>
+      <c r="L3" s="29">
+        <v>45560</v>
+      </c>
+      <c r="M3" s="29">
+        <v>45560</v>
+      </c>
+      <c r="N3" s="29">
+        <v>45560</v>
+      </c>
+      <c r="O3" s="29">
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="32">
-        <v>45560</v>
-      </c>
-      <c r="G3" s="32">
-        <v>45560</v>
-      </c>
-      <c r="H3" s="32">
-        <v>45560</v>
-      </c>
-      <c r="I3" s="32">
-        <v>45560</v>
-      </c>
-      <c r="J3" s="32">
-        <v>45560</v>
-      </c>
-      <c r="K3" s="32">
-        <v>45560</v>
-      </c>
-      <c r="L3" s="32">
-        <v>45560</v>
-      </c>
-      <c r="M3" s="32">
-        <v>45560</v>
-      </c>
-      <c r="N3" s="32">
-        <v>45560</v>
-      </c>
-      <c r="O3" s="32">
-        <v>45560</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="O4" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>150</v>
+      <c r="F5" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18.75" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="K6" s="10">
+        <v>82114</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A7" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="H6" s="13" t="s">
+      <c r="B7" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="26">
+        <v>1888</v>
+      </c>
+      <c r="G7" s="26">
+        <v>1888</v>
+      </c>
+      <c r="H7" s="26">
+        <v>1888</v>
+      </c>
+      <c r="I7" s="26">
+        <v>1889</v>
+      </c>
+      <c r="J7" s="26">
+        <v>1888</v>
+      </c>
+      <c r="K7" s="26">
+        <v>1885</v>
+      </c>
+      <c r="L7" s="26">
+        <v>1885</v>
+      </c>
+      <c r="M7" s="26">
+        <v>1888</v>
+      </c>
+      <c r="N7" s="26">
+        <v>1890</v>
+      </c>
+      <c r="O7" s="26" t="s">
         <v>212</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="K6" s="13">
-        <v>82114</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A7" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="43">
-        <v>1888</v>
-      </c>
-      <c r="G7" s="43">
-        <v>1888</v>
-      </c>
-      <c r="H7" s="43">
-        <v>1888</v>
-      </c>
-      <c r="I7" s="43">
-        <v>1889</v>
-      </c>
-      <c r="J7" s="43">
-        <v>1888</v>
-      </c>
-      <c r="K7" s="43">
-        <v>1885</v>
-      </c>
-      <c r="L7" s="43">
-        <v>1885</v>
-      </c>
-      <c r="M7" s="43">
-        <v>1888</v>
-      </c>
-      <c r="N7" s="43">
-        <v>1890</v>
-      </c>
-      <c r="O7" s="43" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13">
-        <v>9</v>
-      </c>
-      <c r="H8" s="13">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10">
+        <v>9</v>
+      </c>
+      <c r="H8" s="10">
         <v>8</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="10">
         <v>6</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13">
-        <v>9</v>
-      </c>
-      <c r="M8" s="13">
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10">
+        <v>9</v>
+      </c>
+      <c r="M8" s="10">
         <v>10</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13">
+      <c r="N8" s="10"/>
+      <c r="O8" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
+      <c r="F9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:15" ht="18.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
+      <c r="F10" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" spans="1:15" ht="18.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>175</v>
+        <v>216</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>167</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="13">
+      <c r="F11" s="10">
         <v>4</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="10">
         <v>3</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="10">
         <v>7</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" spans="1:15" ht="18.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>226</v>
+        <v>217</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>218</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" spans="1:15" ht="18.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="I13" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>126</v>
+        <v>15</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18.75" customHeight="1">
       <c r="A14" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="O14" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="13">
+      <c r="F15" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="10">
         <v>1</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="10">
         <v>1</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="10">
         <v>1</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="10">
         <v>1</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="10">
         <v>1</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="10">
         <v>1</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="10">
         <v>1</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
@@ -1995,11 +2040,11 @@
     <row r="21" spans="1:4" ht="18.75" customHeight="1"/>
     <row r="22" spans="1:4" ht="18.75" customHeight="1"/>
     <row r="23" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A23" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>244</v>
+      <c r="A23" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2014,237 +2059,235 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="G2" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A3" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A4" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A5" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C5" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="G5" s="42" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A6" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="C6" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="45">
+        <v>45447</v>
+      </c>
+      <c r="G6" s="45">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A7" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6" t="s">
+      <c r="B7" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="C7" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="45">
+        <v>45451</v>
+      </c>
+      <c r="G7" s="45">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A8" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C8" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="42">
+        <v>3</v>
+      </c>
+      <c r="G8" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="41" customFormat="1" ht="62.4">
+      <c r="A9" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="12">
-        <v>45447</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="B9" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="C9" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="D9" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="124.8">
+      <c r="A10" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="12">
-        <v>45451</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="B10" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C10" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6">
-        <v>3</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1"/>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1"/>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1"/>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1">
-      <c r="F14" s="13"/>
+      <c r="G10" s="50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1"/>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1"/>
+    <row r="13" spans="1:7" ht="18.75" customHeight="1"/>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1">
+      <c r="F14" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -2257,23 +2300,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2292,141 +2337,137 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6">
         <v>2</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6">
         <v>640000</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>34</v>
+      <c r="G7" s="6">
+        <v>300000</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +2485,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2462,16 +2503,16 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1">
@@ -2496,407 +2537,407 @@
     </row>
     <row r="2" spans="1:8" ht="21.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>137</v>
+        <v>127</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="12">
+        <v>9</v>
+      </c>
+      <c r="F3" s="9">
         <v>45474</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="29">
         <v>45562</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="29">
         <v>45560</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>143</v>
+        <v>134</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>147</v>
+        <v>24</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>150</v>
+        <v>142</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>156</v>
+        <v>146</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="33">
+      <c r="F8" s="30">
         <v>10594</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="26">
         <v>1888</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="26">
         <v>1888</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="34">
+      <c r="F9" s="31">
         <v>2</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="13">
+      <c r="G9" s="29"/>
+      <c r="H9" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>134</v>
+      <c r="G10" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="12">
+      <c r="F11" s="9">
         <v>45474</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="29">
         <v>45557</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="29">
         <v>45501</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F12" s="6">
         <v>640000</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="10">
         <v>98800000</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="10">
         <v>745220000</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>173</v>
+        <v>163</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>175</v>
+        <v>166</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>167</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="13">
+      <c r="G14" s="10">
         <v>4</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>126</v>
+        <v>170</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="70.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>183</v>
+        <v>23</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="G17" s="31">
+        <v>179</v>
+      </c>
+      <c r="G17" s="28">
         <v>25569.333333333332</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>190</v>
+        <v>181</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1">
-      <c r="G19" s="32"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1">
-      <c r="G20" s="32"/>
+      <c r="G20" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -2911,17 +2952,19 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">
@@ -2943,48 +2986,48 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3004,17 +3047,17 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
@@ -3039,54 +3082,54 @@
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>126</v>
+        <v>9</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>118</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3100,23 +3143,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3136,195 +3180,218 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A3" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="C3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A6" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="26" t="s">
+      <c r="C6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="9">
+        <v>45447</v>
+      </c>
+      <c r="G6" s="9">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A7" s="12" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="B7" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C7" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="26" t="s">
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A8" s="12" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="B8" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A9" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="B9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="12">
-        <v>45447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A8" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A9" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A10" s="15" t="s">
-        <v>112</v>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="44">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5">
         <v>640000</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A11" s="15" t="s">
-        <v>114</v>
+      <c r="G10">
+        <v>8500000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A11" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1">
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1"/>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1"/>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1"/>
+    <row r="13" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1"/>
+    <row r="15" spans="1:7" ht="18.75" customHeight="1"/>
+    <row r="16" spans="1:7" ht="18.75" customHeight="1"/>
     <row r="17" spans="2:5" ht="18.75" customHeight="1"/>
     <row r="18" spans="2:5" ht="18.75" customHeight="1"/>
     <row r="19" spans="2:5" ht="18.75" customHeight="1"/>
     <row r="20" spans="2:5" ht="18.75" customHeight="1">
       <c r="E20" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="18.75" customHeight="1">
       <c r="B21" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3338,23 +3405,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3373,153 +3442,147 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="17" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
+        <v>640000</v>
+      </c>
+      <c r="G6" s="5">
+        <v>8500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A7" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A3" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6">
-        <v>640000</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>92</v>
-      </c>
       <c r="B7" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1"/>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A9" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A10" s="22" t="s">
-        <v>94</v>
+        <v>74</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1"/>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A9" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3533,23 +3596,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3568,192 +3633,180 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="9">
+        <v>45447</v>
+      </c>
+      <c r="G6" s="9">
+        <v>45514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="9">
+        <v>45451</v>
+      </c>
+      <c r="G7" s="9">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="12">
-        <v>45447</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="12">
-        <v>45451</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" s="6">
         <v>5</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1">
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3769,18 +3822,20 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
@@ -3802,124 +3857,122 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="H1"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="H2"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>63</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H4"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A5" s="15" t="s">
-        <v>64</v>
+      <c r="A5" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="H5"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/References/虛擬資料.xlsx
+++ b/References/虛擬資料.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\030\Desktop\Artists\References\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Artists_treasure\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4B6EC8-DFBA-4E80-9709-6924FBEED4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4750872C-E099-46C8-AB1F-82E1F2BB2FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="創作品資料表(ARTWORK)" sheetId="1" r:id="rId1"/>
-    <sheet name="現上展覽" sheetId="2" r:id="rId2"/>
-    <sheet name="收藏品資料表(COLLECTION)" sheetId="3" r:id="rId3"/>
-    <sheet name="主題資料表(THEME)" sheetId="4" r:id="rId4"/>
-    <sheet name="存放位置資料表(PLACE)" sheetId="5" r:id="rId5"/>
-    <sheet name="販售與轉賣資料表(TRADE)" sheetId="6" r:id="rId6"/>
-    <sheet name="販售與轉賣明細資料表(TRADEDETAIL)" sheetId="7" r:id="rId7"/>
-    <sheet name="展覽資料表(EXHIBITION)" sheetId="8" r:id="rId8"/>
-    <sheet name="展覽明細資料表(EXHIBITIONDETAIL)" sheetId="9" r:id="rId9"/>
-    <sheet name="賽事資料表(CONTEST)" sheetId="10" r:id="rId10"/>
-    <sheet name="賽事明細資料表(CONTESTDETAIL)" sheetId="11" r:id="rId11"/>
+    <sheet name="現上展覽資料表(Onlineexhibition)" sheetId="12" r:id="rId2"/>
+    <sheet name="現上展覽明細資料表(ONLINEEXHIBITIONDETA)" sheetId="13" r:id="rId3"/>
+    <sheet name="收藏品資料表(COLLECTION)" sheetId="3" r:id="rId4"/>
+    <sheet name="主題資料表(THEME)" sheetId="4" r:id="rId5"/>
+    <sheet name="存放位置資料表(PLACE)" sheetId="5" r:id="rId6"/>
+    <sheet name="販售與轉賣資料表(TRADE)" sheetId="6" r:id="rId7"/>
+    <sheet name="販售與轉賣明細資料表(TRADEDETAIL)" sheetId="7" r:id="rId8"/>
+    <sheet name="展覽資料表(EXHIBITION)" sheetId="8" r:id="rId9"/>
+    <sheet name="展覽明細資料表(EXHIBITIONDETAIL)" sheetId="9" r:id="rId10"/>
+    <sheet name="賽事資料表(CONTEST)" sheetId="10" r:id="rId11"/>
+    <sheet name="賽事明細資料表(CONTESTDETAIL)" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="297">
   <si>
     <t>欄位名稱</t>
   </si>
@@ -747,11 +748,11 @@
   </si>
   <si>
     <t>線上</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>第 10 屆「竹梅源文藝獎」全國油畫創作比賽-初審</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>為提升藝術文化水準，促進藝術創作交流，致力藝術教育平台，「財團法人王源林文化藝術基金會」成立「竹梅源文藝獎」，希望推廣藝術、提昇文化品質，發掘鼓勵更多青年藝術菁英。</t>
@@ -759,57 +760,272 @@
   <si>
     <t>可採紙本報名。
 https://wylf.org.tw/2024-%E3%80%8C%E7%AB%B9%E6%A2%85%E6%BA%90%E6%96%87%E8%97%9D%E7%8D%8E%E3%80%8D%E7%AC%AC10%E5%B1%86%E5%85%A8%E5%9C%8B%E6%B2%B9%E7%95%AB%E5%89%B5%E4%BD%9C%E6%AF%94%E8%B3%BD/</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CTD00001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>私下交易</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>王曉明</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>張家豪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>TDED00001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>TDE00001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>國立美術館</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>梵谷畫展</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位名稱</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文對照</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料型別</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>屬性</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>範例</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEN_ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>線上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>展覽編號</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(8)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEND00001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEN_NAME</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>線上展覽名稱</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEN_START</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始時間</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEN_FINISH</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>結束時間</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEN_ITEM</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品件數</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEN_INTRODUCE</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>展覽介紹</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEN_REMARK</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>註解</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEND_ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>線上展覽明細編號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>線上展覽編號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEN00001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK_ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>創作品編號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(7)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOREIGN KEY</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK00001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>COL_ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏品編號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>COL00001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEND_NAME</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>線上展覽作品別名</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skrilk</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>現上展覽明細資料表(ONLINEEXHIBITIONDETAIL)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUNFLOWER</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>梵谷藝術之旅</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="178" formatCode="yyyy"/>
     <numFmt numFmtId="179" formatCode="mm"/>
+    <numFmt numFmtId="180" formatCode="00000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -855,8 +1071,28 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -883,8 +1119,14 @@
         <fgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -953,28 +1195,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -983,133 +1243,167 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{2D777297-1CA6-4718-9D81-532409E5A0D7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1418,22 +1712,22 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2048,13 +2342,178 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -2065,16 +2524,16 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1">
@@ -2243,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="41" customFormat="1" ht="62.4">
+    <row r="9" spans="1:7" s="41" customFormat="1" ht="63">
       <c r="A9" s="40" t="s">
         <v>44</v>
       </c>
@@ -2262,7 +2721,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="124.8">
+    <row r="10" spans="1:7" ht="110.25">
       <c r="A10" s="40" t="s">
         <v>47</v>
       </c>
@@ -2290,12 +2749,12 @@
       <c r="F14" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -2306,16 +2765,16 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">
@@ -2471,28 +2930,358 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9311F59B-015F-463C-86A1-F3993A8E6466}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" s="60">
+        <v>45526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="G5" s="60">
+        <v>45567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E08362-DAA6-403F-965F-0C392EE97C6B}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="E8" s="54"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A22:E22"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -2500,19 +3289,19 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1">
@@ -2940,12 +3729,12 @@
       <c r="G20" s="29"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -2956,15 +3745,15 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">
@@ -3031,12 +3820,12 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3047,17 +3836,17 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
@@ -3133,12 +3922,12 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3149,15 +3938,15 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">
@@ -3395,12 +4184,12 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3411,16 +4200,16 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">
@@ -3586,12 +4375,12 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3602,16 +4391,16 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="24.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">
@@ -3810,172 +4599,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/References/虛擬資料.xlsx
+++ b/References/虛擬資料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Artists_treasure\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4750872C-E099-46C8-AB1F-82E1F2BB2FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6F8DB6-05F0-4C7E-869A-A165F092F778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="創作品資料表(ARTWORK)" sheetId="1" r:id="rId1"/>
@@ -1217,7 +1217,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1388,17 +1388,20 @@
     <xf numFmtId="180" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2939,7 +2942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9311F59B-015F-463C-86A1-F3993A8E6466}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -3011,7 +3014,7 @@
       <c r="D3" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="58" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3028,7 +3031,7 @@
       <c r="D4" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="59">
         <v>45526</v>
       </c>
     </row>
@@ -3045,7 +3048,7 @@
       <c r="D5" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="59">
         <v>45567</v>
       </c>
     </row>
@@ -3062,7 +3065,7 @@
       <c r="D6" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="G6" s="61">
+      <c r="G6" s="60">
         <v>1</v>
       </c>
     </row>
@@ -3264,13 +3267,13 @@
       <c r="E8" s="54"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3288,8 +3291,8 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3692,8 +3695,8 @@
       <c r="F17" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="28">
-        <v>25569.333333333332</v>
+      <c r="G17" s="62">
+        <v>1</v>
       </c>
       <c r="H17" s="10">
         <v>1</v>
